--- a/data/analysis.xlsx
+++ b/data/analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav/Documents/GitHub/water/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislav/Documents/GitHub/water/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A25E4-CE23-6D4E-BF63-6FE7BDD50870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF4FD8-DC9E-F247-BD24-657FEF5A3F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="5" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Графики" sheetId="1" r:id="rId1"/>
@@ -4270,7 +4270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="75" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
@@ -10806,8 +10806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10975,14 +10975,12 @@
         <v>285</v>
       </c>
       <c r="O3" s="68">
-        <f>'25.01.23'!O3</f>
         <v>209</v>
       </c>
       <c r="P3" s="68">
         <v>245</v>
       </c>
       <c r="Q3" s="68">
-        <f>'25.01.23'!Q3</f>
         <v>430</v>
       </c>
       <c r="R3" s="68">
